--- a/TestData/Staging/Web_POS/Billing/product_catalog_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Billing/product_catalog_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\TESTDATA\STAGING\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>price_book_name</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>PC_1</t>
@@ -261,8 +264,25 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal>
+        <color indexed="64"/>
+      </diagonal>
+    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -275,16 +295,18 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -505,8 +527,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="U1">
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -530,25 +552,26 @@
     <col min="21" max="21" width="23.20703" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
     <col min="23" max="23" width="18.92969" customWidth="1"/>
+    <col min="33" max="33" width="18.5625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -628,478 +651,493 @@
       </c>
       <c r="AF1" t="s">
         <v>31</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>7896532145</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>7896532145</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>7896532145</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>7896532145</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" t="s">
         <v>43</v>
       </c>
-      <c r="V6" t="s">
-        <v>45</v>
-      </c>
-      <c r="W6" t="s">
-        <v>46</v>
-      </c>
-      <c r="X6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>42</v>
-      </c>
       <c r="Z6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA6">
         <v>500</v>
@@ -1111,503 +1149,521 @@
         <v>100</v>
       </c>
       <c r="AD6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>7896532145</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="D7" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="F7" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="H7" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>7896532145</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="F8" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="H8" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF8" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>7896532145</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U9" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>55</v>
+      <c r="AG9" s="4">
+        <v>7896532145</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="H10" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF10" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>7963214856</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="D11" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="F11" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="H11" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF11" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>7896532145</v>
       </c>
     </row>
     <row r="12" ht="12.75"/>

--- a/TestData/Staging/Web_POS/Billing/product_catalog_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Billing/product_catalog_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\production api\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>Copy</t>
-  </si>
-  <si>
-    <t>Carry bag</t>
   </si>
 </sst>
 </file>
@@ -264,25 +261,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -295,7 +275,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -527,8 +507,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="U1">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="T1">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -1630,7 +1610,7 @@
         <v>44</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>39</v>

--- a/TestData/Staging/Web_POS/Billing/product_catalog_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Billing/product_catalog_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\production api\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -153,9 +153,6 @@
     <t>Body Scrub</t>
   </si>
   <si>
-    <t>Index9QA</t>
-  </si>
-  <si>
     <t>PC_5</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>Copy</t>
+  </si>
+  <si>
+    <t>Carry Bag</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="T1">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -1000,8 +1000,8 @@
       <c r="T5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U5" t="s">
-        <v>44</v>
+      <c r="U5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>39</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>34</v>
@@ -1101,23 +1101,23 @@
       <c r="T6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U6" t="s">
-        <v>44</v>
+      <c r="U6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="V6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
         <v>46</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>47</v>
-      </c>
-      <c r="X6" t="s">
-        <v>48</v>
       </c>
       <c r="Y6" t="s">
         <v>43</v>
       </c>
       <c r="Z6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA6">
         <v>500</v>
@@ -1129,10 +1129,10 @@
         <v>100</v>
       </c>
       <c r="AD6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" t="s">
         <v>50</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>51</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>39</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
@@ -1179,7 +1179,7 @@
         <v>39</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>39</v>
@@ -1202,8 +1202,8 @@
       <c r="T7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U7" t="s">
-        <v>44</v>
+      <c r="U7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>39</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>34</v>
@@ -1301,43 +1301,43 @@
         <v>39</v>
       </c>
       <c r="T8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF8" t="s">
         <v>55</v>
-      </c>
-      <c r="U8" t="s">
-        <v>44</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>56</v>
       </c>
       <c r="AG8" s="4">
         <v>7896532145</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>34</v>
@@ -1381,7 +1381,7 @@
         <v>39</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>39</v>
@@ -1402,43 +1402,43 @@
         <v>39</v>
       </c>
       <c r="T9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF9" t="s">
         <v>55</v>
-      </c>
-      <c r="U9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>56</v>
       </c>
       <c r="AG9" s="4">
         <v>7896532145</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -1458,7 +1458,7 @@
         <v>123456</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="3">
         <v>123456</v>
@@ -1482,7 +1482,7 @@
         <v>39</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>39</v>
@@ -1503,14 +1503,14 @@
         <v>39</v>
       </c>
       <c r="T10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="W10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>39</v>
       </c>
       <c r="AF10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG10" s="4">
         <v>7963214856</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>34</v>
@@ -1583,7 +1583,7 @@
         <v>39</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>39</v>
@@ -1604,10 +1604,10 @@
         <v>39</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>62</v>
@@ -1640,7 +1640,7 @@
         <v>39</v>
       </c>
       <c r="AF11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG11" s="4">
         <v>7896532145</v>
